--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,10 +474,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>-3.125987038661222</v>
@@ -498,9 +504,9 @@
         <v>-0.02620862848402794</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1.569964935260771</v>
@@ -521,9 +527,9 @@
         <v>3.099778410177194</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2.213903184931212</v>
@@ -540,10 +546,22 @@
       <c r="F4">
         <v>1.529813474916423</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4">
+        <v>0.2890697267702507</v>
+      </c>
+      <c r="H4">
+        <v>-0.6507920071323952</v>
+      </c>
+      <c r="I4">
+        <v>0.4578003130087183</v>
+      </c>
+      <c r="J4">
+        <v>-0.1119550751434417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>-0.5865976894128271</v>
@@ -570,9 +588,9 @@
         <v>-2.325858260074654</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>-1.610106285304951</v>
@@ -596,9 +614,9 @@
         <v>-1.739260570661827</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>-0.489062653235223</v>
@@ -619,9 +637,9 @@
         <v>-0.1291542853568757</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2.001676917938212</v>
@@ -638,10 +656,19 @@
       <c r="F8">
         <v>0.3599083678783472</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8">
+        <v>0.7010458975705092</v>
+      </c>
+      <c r="H8">
+        <v>0.6218889942996384</v>
+      </c>
+      <c r="I8">
+        <v>0.4230596606995932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>-1.240743748146172</v>
@@ -665,9 +692,9 @@
         <v>-1.578617257238619</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>-0.9398617339026458</v>
@@ -688,9 +715,9 @@
         <v>-0.3378735090924465</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1.108592320141113</v>
@@ -708,9 +735,9 @@
         <v>0.6019882248101993</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>-0.56975538815216</v>
@@ -725,9 +752,9 @@
         <v>-0.5066040953309141</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0.3411375296921619</v>
@@ -739,9 +766,9 @@
         <v>0.06315129282124593</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>-0.07915690327087077</v>
@@ -750,17 +777,17 @@
         <v>-0.277986236870916</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>-0.1988293336000452</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.4579015631724133</v>
+      </c>
+      <c r="C2">
+        <v>5.338322726705314</v>
+      </c>
+      <c r="D2">
+        <v>0.129979978836559</v>
+      </c>
+      <c r="E2">
+        <v>8.053710067350124</v>
+      </c>
+      <c r="F2">
+        <v>9.30234351958903</v>
+      </c>
+      <c r="G2">
+        <v>9.356502662527745</v>
+      </c>
+      <c r="H2">
+        <v>-1.028015475570769</v>
+      </c>
+      <c r="I2">
+        <v>5.562434195618991</v>
+      </c>
+      <c r="J2">
+        <v>-2.143902545412814</v>
+      </c>
+      <c r="K2">
+        <v>-3.825980538631669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.3279215843358543</v>
+      </c>
+      <c r="C3">
+        <v>7.595808504177711</v>
+      </c>
+      <c r="D3">
+        <v>8.844441956416617</v>
+      </c>
+      <c r="E3">
+        <v>8.898601099355332</v>
+      </c>
+      <c r="F3">
+        <v>-1.485917038743183</v>
+      </c>
+      <c r="G3">
+        <v>5.104532632446578</v>
+      </c>
+      <c r="H3">
+        <v>-2.601804108585227</v>
+      </c>
+      <c r="I3">
+        <v>-4.283882101804082</v>
+      </c>
+      <c r="J3">
+        <v>1.554396154886178</v>
+      </c>
+      <c r="K3">
+        <v>2.691300087265333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9.172363540752471</v>
+      </c>
+      <c r="C4">
+        <v>9.226522683691186</v>
+      </c>
+      <c r="D4">
+        <v>-1.157995454407328</v>
+      </c>
+      <c r="E4">
+        <v>5.432454216782432</v>
+      </c>
+      <c r="F4">
+        <v>-2.273882524249373</v>
+      </c>
+      <c r="G4">
+        <v>-3.955960517468228</v>
+      </c>
+      <c r="H4">
+        <v>1.882317739222032</v>
+      </c>
+      <c r="I4">
+        <v>3.019221671601187</v>
+      </c>
+      <c r="J4">
+        <v>2.352675024357012</v>
+      </c>
+      <c r="K4">
+        <v>0.924205561443642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-10.3303589951598</v>
+      </c>
+      <c r="C5">
+        <v>-3.739909323970039</v>
+      </c>
+      <c r="D5">
+        <v>-11.44624606500184</v>
+      </c>
+      <c r="E5">
+        <v>-13.1283240582207</v>
+      </c>
+      <c r="F5">
+        <v>-7.290045801530439</v>
+      </c>
+      <c r="G5">
+        <v>-6.153141869151284</v>
+      </c>
+      <c r="H5">
+        <v>-6.819688516395459</v>
+      </c>
+      <c r="I5">
+        <v>-8.248157979308829</v>
+      </c>
+      <c r="J5">
+        <v>-7.99978088906802</v>
+      </c>
+      <c r="K5">
+        <v>-4.568309330312346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1.115887069842045</v>
+      </c>
+      <c r="C6">
+        <v>-2.797965063060899</v>
+      </c>
+      <c r="D6">
+        <v>3.04031319362936</v>
+      </c>
+      <c r="E6">
+        <v>4.177217126008515</v>
+      </c>
+      <c r="F6">
+        <v>3.51067047876434</v>
+      </c>
+      <c r="G6">
+        <v>2.08220101585097</v>
+      </c>
+      <c r="H6">
+        <v>2.330578106091779</v>
+      </c>
+      <c r="I6">
+        <v>5.762049664847454</v>
+      </c>
+      <c r="J6">
+        <v>4.951683530612301</v>
+      </c>
+      <c r="K6">
+        <v>2.734985928774834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4.156200263471405</v>
+      </c>
+      <c r="C7">
+        <v>5.29310419585056</v>
+      </c>
+      <c r="D7">
+        <v>4.626557548606385</v>
+      </c>
+      <c r="E7">
+        <v>3.198088085693015</v>
+      </c>
+      <c r="F7">
+        <v>3.446465175933824</v>
+      </c>
+      <c r="G7">
+        <v>6.877936734689499</v>
+      </c>
+      <c r="H7">
+        <v>6.067570600454346</v>
+      </c>
+      <c r="I7">
+        <v>3.850872998616879</v>
+      </c>
+      <c r="J7">
+        <v>5.045967226851999</v>
+      </c>
+      <c r="K7">
+        <v>7.402503476503583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.47035728513498</v>
+      </c>
+      <c r="C8">
+        <v>-0.9581121777783901</v>
+      </c>
+      <c r="D8">
+        <v>-0.709735087537581</v>
+      </c>
+      <c r="E8">
+        <v>2.721736471218093</v>
+      </c>
+      <c r="F8">
+        <v>1.91137033698294</v>
+      </c>
+      <c r="G8">
+        <v>-0.305327264854526</v>
+      </c>
+      <c r="H8">
+        <v>0.889766963380594</v>
+      </c>
+      <c r="I8">
+        <v>3.246303213032177</v>
+      </c>
+      <c r="J8">
+        <v>4.033642100495049</v>
+      </c>
+      <c r="K8">
+        <v>0.0005631877931331353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-1.180092372672561</v>
+      </c>
+      <c r="C9">
+        <v>2.251379186083113</v>
+      </c>
+      <c r="D9">
+        <v>1.44101305184796</v>
+      </c>
+      <c r="E9">
+        <v>-0.775684549989506</v>
+      </c>
+      <c r="F9">
+        <v>0.419409678245614</v>
+      </c>
+      <c r="G9">
+        <v>2.775945927897197</v>
+      </c>
+      <c r="H9">
+        <v>3.563284815360069</v>
+      </c>
+      <c r="I9">
+        <v>-0.4697940973418469</v>
+      </c>
+      <c r="J9">
+        <v>0.6515619442103713</v>
+      </c>
+      <c r="K9">
+        <v>0.177956793679755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2.621105424520521</v>
+      </c>
+      <c r="C10">
+        <v>0.404407822683055</v>
+      </c>
+      <c r="D10">
+        <v>1.599502050918175</v>
+      </c>
+      <c r="E10">
+        <v>3.956038300569758</v>
+      </c>
+      <c r="F10">
+        <v>4.74337718803263</v>
+      </c>
+      <c r="G10">
+        <v>0.7102982753307141</v>
+      </c>
+      <c r="H10">
+        <v>1.831654316882932</v>
+      </c>
+      <c r="I10">
+        <v>1.358049166352316</v>
+      </c>
+      <c r="J10">
+        <v>0.4348698882698301</v>
+      </c>
+      <c r="K10">
+        <v>1.524172574681856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1.021603373602346</v>
+      </c>
+      <c r="C11">
+        <v>1.334932876049236</v>
+      </c>
+      <c r="D11">
+        <v>2.122271763512109</v>
+      </c>
+      <c r="E11">
+        <v>-1.910807149189807</v>
+      </c>
+      <c r="F11">
+        <v>-0.7894511076375892</v>
+      </c>
+      <c r="G11">
+        <v>-1.263056258168205</v>
+      </c>
+      <c r="H11">
+        <v>-2.186235536250691</v>
+      </c>
+      <c r="I11">
+        <v>-1.096932849838665</v>
+      </c>
+      <c r="J11">
+        <v>-1.655518713997182</v>
+      </c>
+      <c r="K11">
+        <v>-1.835224367312363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.143875137114455</v>
+      </c>
+      <c r="C12">
+        <v>-0.8892037755874609</v>
+      </c>
+      <c r="D12">
+        <v>0.2321522659647572</v>
+      </c>
+      <c r="E12">
+        <v>-0.241452884565859</v>
+      </c>
+      <c r="F12">
+        <v>-1.164632162648345</v>
+      </c>
+      <c r="G12">
+        <v>-0.07532947623631903</v>
+      </c>
+      <c r="H12">
+        <v>-0.6339153403948359</v>
+      </c>
+      <c r="I12">
+        <v>-0.8136209937100169</v>
+      </c>
+      <c r="J12">
+        <v>-0.4201700006923941</v>
+      </c>
+      <c r="K12">
+        <v>0.5568943103860138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-2.911722871149698</v>
+      </c>
+      <c r="C13">
+        <v>-3.385328021680314</v>
+      </c>
+      <c r="D13">
+        <v>-4.3085072997628</v>
+      </c>
+      <c r="E13">
+        <v>-3.219204613350774</v>
+      </c>
+      <c r="F13">
+        <v>-3.777790477509291</v>
+      </c>
+      <c r="G13">
+        <v>-3.957496130824472</v>
+      </c>
+      <c r="H13">
+        <v>-3.564045137806849</v>
+      </c>
+      <c r="I13">
+        <v>-2.586980826728441</v>
+      </c>
+      <c r="J13">
+        <v>-3.244719845809078</v>
+      </c>
+      <c r="K13">
+        <v>-2.620184215815903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1.396784428613102</v>
+      </c>
+      <c r="C14">
+        <v>-0.3074817422010763</v>
+      </c>
+      <c r="D14">
+        <v>-0.8660676063595931</v>
+      </c>
+      <c r="E14">
+        <v>-1.045773259674774</v>
+      </c>
+      <c r="F14">
+        <v>-0.6523222666571513</v>
+      </c>
+      <c r="G14">
+        <v>0.3247420444212566</v>
+      </c>
+      <c r="H14">
+        <v>-0.3329969746593802</v>
+      </c>
+      <c r="I14">
+        <v>0.2915386553337953</v>
+      </c>
+      <c r="J14">
+        <v>-0.5846945310764653</v>
+      </c>
+      <c r="K14">
+        <v>0.7149502265313572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.530716822253509</v>
+      </c>
+      <c r="C15">
+        <v>0.351011168938328</v>
+      </c>
+      <c r="D15">
+        <v>0.7444621619559508</v>
+      </c>
+      <c r="E15">
+        <v>1.721526473034359</v>
+      </c>
+      <c r="F15">
+        <v>1.063787453953722</v>
+      </c>
+      <c r="G15">
+        <v>1.688323083946897</v>
+      </c>
+      <c r="H15">
+        <v>0.8120898975366369</v>
+      </c>
+      <c r="I15">
+        <v>2.111734655144459</v>
+      </c>
+      <c r="J15">
+        <v>2.047376613937643</v>
+      </c>
+      <c r="K15">
+        <v>-0.2808833795217542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.2137453397024418</v>
+      </c>
+      <c r="C16">
+        <v>1.19080965078085</v>
+      </c>
+      <c r="D16">
+        <v>0.533070631700213</v>
+      </c>
+      <c r="E16">
+        <v>1.157606261693388</v>
+      </c>
+      <c r="F16">
+        <v>0.2813730752831278</v>
+      </c>
+      <c r="G16">
+        <v>1.58101783289095</v>
+      </c>
+      <c r="H16">
+        <v>1.516659791684134</v>
+      </c>
+      <c r="I16">
+        <v>-0.8116002017752633</v>
+      </c>
+      <c r="J16">
+        <v>1.279469939897808</v>
+      </c>
+      <c r="K16">
+        <v>-0.718957825128143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.3193252919977712</v>
+      </c>
+      <c r="C17">
+        <v>0.9438609219909466</v>
+      </c>
+      <c r="D17">
+        <v>0.06762773558068602</v>
+      </c>
+      <c r="E17">
+        <v>1.367272493188509</v>
+      </c>
+      <c r="F17">
+        <v>1.302914451981692</v>
+      </c>
+      <c r="G17">
+        <v>-1.025345541477705</v>
+      </c>
+      <c r="H17">
+        <v>1.065724600195367</v>
+      </c>
+      <c r="I17">
+        <v>-0.9327031648305848</v>
+      </c>
+      <c r="J17">
+        <v>0.5720072326399475</v>
+      </c>
+      <c r="K17">
+        <v>-0.525244647894255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.2516975564170851</v>
+      </c>
+      <c r="C18">
+        <v>1.047947201190737</v>
+      </c>
+      <c r="D18">
+        <v>0.9835891599839213</v>
+      </c>
+      <c r="E18">
+        <v>-1.344670833475476</v>
+      </c>
+      <c r="F18">
+        <v>0.7463993081975955</v>
+      </c>
+      <c r="G18">
+        <v>-1.252028456828356</v>
+      </c>
+      <c r="H18">
+        <v>0.2526819406421763</v>
+      </c>
+      <c r="I18">
+        <v>-0.8445699398920261</v>
+      </c>
+      <c r="J18">
+        <v>2.23980046762793</v>
+      </c>
+      <c r="K18">
+        <v>-0.565254107112708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.235286716401006</v>
+      </c>
+      <c r="C19">
+        <v>-1.092973277058391</v>
+      </c>
+      <c r="D19">
+        <v>0.9980968646146806</v>
+      </c>
+      <c r="E19">
+        <v>-1.000330900411271</v>
+      </c>
+      <c r="F19">
+        <v>0.5043794970592614</v>
+      </c>
+      <c r="G19">
+        <v>-0.592872383474941</v>
+      </c>
+      <c r="H19">
+        <v>2.491498024045015</v>
+      </c>
+      <c r="I19">
+        <v>-0.3135565506956228</v>
+      </c>
+      <c r="J19">
+        <v>0.09641740222616302</v>
+      </c>
+      <c r="K19">
+        <v>0.6618216809464883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.2371898517863258</v>
+      </c>
+      <c r="C20">
+        <v>-2.235617616812277</v>
+      </c>
+      <c r="D20">
+        <v>-0.730907219341745</v>
+      </c>
+      <c r="E20">
+        <v>-1.828159099875947</v>
+      </c>
+      <c r="F20">
+        <v>1.256211307644009</v>
+      </c>
+      <c r="G20">
+        <v>-1.548843267096629</v>
+      </c>
+      <c r="H20">
+        <v>-1.138869314174843</v>
+      </c>
+      <c r="I20">
+        <v>-0.5734650354545181</v>
+      </c>
+      <c r="J20">
+        <v>-0.5388693141748433</v>
+      </c>
+      <c r="K20">
+        <v>0.4351450379494395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.4937173675554191</v>
+      </c>
+      <c r="C21">
+        <v>-1.590969248089622</v>
+      </c>
+      <c r="D21">
+        <v>1.493401159430334</v>
+      </c>
+      <c r="E21">
+        <v>-1.311653415310303</v>
+      </c>
+      <c r="F21">
+        <v>-0.9016794623885176</v>
+      </c>
+      <c r="G21">
+        <v>-0.3362751836681923</v>
+      </c>
+      <c r="H21">
+        <v>-0.3016794623885174</v>
+      </c>
+      <c r="I21">
+        <v>0.6723348897357653</v>
+      </c>
+      <c r="J21">
+        <v>0.3296514623254155</v>
+      </c>
+      <c r="K21">
+        <v>-0.8736368315979635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1.987118526985754</v>
+      </c>
+      <c r="C22">
+        <v>-0.8179360477548843</v>
+      </c>
+      <c r="D22">
+        <v>-0.4079620948330984</v>
+      </c>
+      <c r="E22">
+        <v>0.1574421838872269</v>
+      </c>
+      <c r="F22">
+        <v>0.1920379051669017</v>
+      </c>
+      <c r="G22">
+        <v>1.166052257291184</v>
+      </c>
+      <c r="H22">
+        <v>0.8233688298808346</v>
+      </c>
+      <c r="I22">
+        <v>-0.3799194640425443</v>
+      </c>
+      <c r="J22">
+        <v>2.492037905166902</v>
+      </c>
+      <c r="K22">
+        <v>16.91773480187646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.2793158327793182</v>
+      </c>
+      <c r="C23">
+        <v>0.689289785701104</v>
+      </c>
+      <c r="D23">
+        <v>1.254694064421429</v>
+      </c>
+      <c r="E23">
+        <v>1.289289785701104</v>
+      </c>
+      <c r="F23">
+        <v>2.263304137825387</v>
+      </c>
+      <c r="G23">
+        <v>1.920620710415037</v>
+      </c>
+      <c r="H23">
+        <v>0.7173324164916581</v>
+      </c>
+      <c r="I23">
+        <v>3.589289785701104</v>
+      </c>
+      <c r="J23">
+        <v>18.01498668241067</v>
+      </c>
+      <c r="K23">
+        <v>-5.980262731155676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-2.395080621818852</v>
+      </c>
+      <c r="C24">
+        <v>-1.829676343098527</v>
+      </c>
+      <c r="D24">
+        <v>-1.795080621818852</v>
+      </c>
+      <c r="E24">
+        <v>-0.8210662696945692</v>
+      </c>
+      <c r="F24">
+        <v>-1.163749697104919</v>
+      </c>
+      <c r="G24">
+        <v>-2.367037991028298</v>
+      </c>
+      <c r="H24">
+        <v>0.5049193781811481</v>
+      </c>
+      <c r="I24">
+        <v>14.93061627489071</v>
+      </c>
+      <c r="J24">
+        <v>-9.064633138675632</v>
+      </c>
+      <c r="K24">
+        <v>-3.212868732817043</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.9753782316421111</v>
+      </c>
+      <c r="C25">
+        <v>1.009973952921786</v>
+      </c>
+      <c r="D25">
+        <v>1.983988305046069</v>
+      </c>
+      <c r="E25">
+        <v>1.641304877635719</v>
+      </c>
+      <c r="F25">
+        <v>0.43801658371234</v>
+      </c>
+      <c r="G25">
+        <v>3.309973952921786</v>
+      </c>
+      <c r="H25">
+        <v>17.73567084963135</v>
+      </c>
+      <c r="I25">
+        <v>-6.259578563934994</v>
+      </c>
+      <c r="J25">
+        <v>-0.4078141580764052</v>
+      </c>
+      <c r="K25">
+        <v>2.696097958522756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1.574014352124283</v>
+      </c>
+      <c r="D26">
+        <v>1.231330924713933</v>
+      </c>
+      <c r="E26">
+        <v>0.02804263079055413</v>
+      </c>
+      <c r="F26">
+        <v>2.9</v>
+      </c>
+      <c r="G26">
+        <v>17.32569689670956</v>
+      </c>
+      <c r="H26">
+        <v>-6.66955251685678</v>
+      </c>
+      <c r="I26">
+        <v>-0.817788110998191</v>
+      </c>
+      <c r="J26">
+        <v>2.28612400560097</v>
+      </c>
+      <c r="K26">
+        <v>-1.576944405321424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>1.008610073403958</v>
+      </c>
+      <c r="C27">
+        <v>0.6659266459936077</v>
+      </c>
+      <c r="D27">
+        <v>-0.5373616479297711</v>
+      </c>
+      <c r="E27">
+        <v>2.334595721279675</v>
+      </c>
+      <c r="F27">
+        <v>16.76029261798924</v>
+      </c>
+      <c r="G27">
+        <v>-7.234956795577105</v>
+      </c>
+      <c r="H27">
+        <v>-1.383192389718516</v>
+      </c>
+      <c r="I27">
+        <v>1.720719726880645</v>
+      </c>
+      <c r="J27">
+        <v>-2.142348684041749</v>
+      </c>
+      <c r="K27">
+        <v>0.2981199544020541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.6313309247139329</v>
+      </c>
+      <c r="C28">
+        <v>-0.571957369209446</v>
+      </c>
+      <c r="D28">
+        <v>2.3</v>
+      </c>
+      <c r="E28">
+        <v>16.72569689670956</v>
+      </c>
+      <c r="F28">
+        <v>-7.26955251685678</v>
+      </c>
+      <c r="G28">
+        <v>-1.417788110998191</v>
+      </c>
+      <c r="H28">
+        <v>1.686124005600971</v>
+      </c>
+      <c r="I28">
+        <v>-2.176944405321424</v>
+      </c>
+      <c r="J28">
+        <v>0.2635242331223793</v>
+      </c>
+      <c r="K28">
+        <v>0.04576459045484849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1.545971721333729</v>
+      </c>
+      <c r="C29">
+        <v>1.325985647875717</v>
+      </c>
+      <c r="D29">
+        <v>15.75168254458528</v>
+      </c>
+      <c r="E29">
+        <v>-8.243566868981063</v>
+      </c>
+      <c r="F29">
+        <v>-2.391802463122474</v>
+      </c>
+      <c r="G29">
+        <v>0.7121096534766878</v>
+      </c>
+      <c r="H29">
+        <v>-3.150958757445707</v>
+      </c>
+      <c r="I29">
+        <v>-0.7104901190019035</v>
+      </c>
+      <c r="J29">
+        <v>-0.9282497616694343</v>
+      </c>
+      <c r="K29">
+        <v>1.084625797210705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.668669075286067</v>
+      </c>
+      <c r="C30">
+        <v>16.09436597199563</v>
+      </c>
+      <c r="D30">
+        <v>-7.900883441570713</v>
+      </c>
+      <c r="E30">
+        <v>-2.049119035712124</v>
+      </c>
+      <c r="F30">
+        <v>1.054793080887038</v>
+      </c>
+      <c r="G30">
+        <v>-2.808275330035357</v>
+      </c>
+      <c r="H30">
+        <v>-0.3678066915915537</v>
+      </c>
+      <c r="I30">
+        <v>-0.5855663342590844</v>
+      </c>
+      <c r="J30">
+        <v>1.427309224621055</v>
+      </c>
+      <c r="K30">
+        <v>-1.698677814040167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>17.29765426591901</v>
+      </c>
+      <c r="C31">
+        <v>-6.697595147647334</v>
+      </c>
+      <c r="D31">
+        <v>-0.8458307417887452</v>
+      </c>
+      <c r="E31">
+        <v>2.258081374810416</v>
+      </c>
+      <c r="F31">
+        <v>-1.604987036111978</v>
+      </c>
+      <c r="G31">
+        <v>0.8354816023318252</v>
+      </c>
+      <c r="H31">
+        <v>0.6177219596642944</v>
+      </c>
+      <c r="I31">
+        <v>2.630597518544434</v>
+      </c>
+      <c r="J31">
+        <v>-0.4953895201167882</v>
+      </c>
+      <c r="K31">
+        <v>1.074575415143983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-9.569552516856779</v>
+      </c>
+      <c r="C32">
+        <v>-3.717788110998191</v>
+      </c>
+      <c r="D32">
+        <v>-0.6138759943990295</v>
+      </c>
+      <c r="E32">
+        <v>-4.476944405321424</v>
+      </c>
+      <c r="F32">
+        <v>-2.036475766877621</v>
+      </c>
+      <c r="G32">
+        <v>-2.254235409545152</v>
+      </c>
+      <c r="H32">
+        <v>-0.2413598506650121</v>
+      </c>
+      <c r="I32">
+        <v>-3.367346889326234</v>
+      </c>
+      <c r="J32">
+        <v>-1.797381954065463</v>
+      </c>
+      <c r="K32">
+        <v>0.4165212308657491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>5.851764405858589</v>
+      </c>
+      <c r="C33">
+        <v>8.95567652245775</v>
+      </c>
+      <c r="D33">
+        <v>5.092608111535355</v>
+      </c>
+      <c r="E33">
+        <v>7.533076749979159</v>
+      </c>
+      <c r="F33">
+        <v>7.315317107311628</v>
+      </c>
+      <c r="G33">
+        <v>9.328192666191768</v>
+      </c>
+      <c r="H33">
+        <v>6.202205627530546</v>
+      </c>
+      <c r="I33">
+        <v>7.772170562791317</v>
+      </c>
+      <c r="J33">
+        <v>9.986073747722529</v>
+      </c>
+      <c r="K33">
+        <v>9.399476058309702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>3.103912116599162</v>
+      </c>
+      <c r="C34">
+        <v>-0.7591562943232328</v>
+      </c>
+      <c r="D34">
+        <v>1.68131234412057</v>
+      </c>
+      <c r="E34">
+        <v>1.46355270145304</v>
+      </c>
+      <c r="F34">
+        <v>3.476428260333179</v>
+      </c>
+      <c r="G34">
+        <v>0.350441221671957</v>
+      </c>
+      <c r="H34">
+        <v>1.920406156932728</v>
+      </c>
+      <c r="I34">
+        <v>4.13430934186394</v>
+      </c>
+      <c r="J34">
+        <v>3.547711652451113</v>
+      </c>
+      <c r="K34">
+        <v>1.937605367146162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-3.863068410922395</v>
+      </c>
+      <c r="C35">
+        <v>-1.422599772478591</v>
+      </c>
+      <c r="D35">
+        <v>-1.640359415146122</v>
+      </c>
+      <c r="E35">
+        <v>0.3725161437340174</v>
+      </c>
+      <c r="F35">
+        <v>-2.753470894927204</v>
+      </c>
+      <c r="G35">
+        <v>-1.183505959666434</v>
+      </c>
+      <c r="H35">
+        <v>1.030397225264779</v>
+      </c>
+      <c r="I35">
+        <v>0.4437995358519515</v>
+      </c>
+      <c r="J35">
+        <v>-1.166306749453</v>
+      </c>
+      <c r="K35">
+        <v>-1.655369402688223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2.440468638443803</v>
+      </c>
+      <c r="C36">
+        <v>2.222708995776272</v>
+      </c>
+      <c r="D36">
+        <v>4.235584554656412</v>
+      </c>
+      <c r="E36">
+        <v>1.10959751599519</v>
+      </c>
+      <c r="F36">
+        <v>2.679562451255961</v>
+      </c>
+      <c r="G36">
+        <v>4.893465636187173</v>
+      </c>
+      <c r="H36">
+        <v>4.306867946774346</v>
+      </c>
+      <c r="I36">
+        <v>2.696761661469395</v>
+      </c>
+      <c r="J36">
+        <v>2.207699008234172</v>
+      </c>
+      <c r="K36">
+        <v>4.209375926172384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.2177596426675308</v>
+      </c>
+      <c r="C37">
+        <v>1.795115916212609</v>
+      </c>
+      <c r="D37">
+        <v>-1.330871122448613</v>
+      </c>
+      <c r="E37">
+        <v>0.2390938128121576</v>
+      </c>
+      <c r="F37">
+        <v>2.45299699774337</v>
+      </c>
+      <c r="G37">
+        <v>1.866399308330543</v>
+      </c>
+      <c r="H37">
+        <v>0.2562930230255916</v>
+      </c>
+      <c r="I37">
+        <v>-0.2327696302096314</v>
+      </c>
+      <c r="J37">
+        <v>1.768907287728581</v>
+      </c>
+      <c r="K37">
+        <v>0.5281635395824082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2.01287555888014</v>
+      </c>
+      <c r="C38">
+        <v>-1.113111479781083</v>
+      </c>
+      <c r="D38">
+        <v>0.4568534554796884</v>
+      </c>
+      <c r="E38">
+        <v>2.670756640410901</v>
+      </c>
+      <c r="F38">
+        <v>2.084158950998074</v>
+      </c>
+      <c r="G38">
+        <v>0.4740526656931224</v>
+      </c>
+      <c r="H38">
+        <v>-0.01500998754210059</v>
+      </c>
+      <c r="I38">
+        <v>1.986666930396112</v>
+      </c>
+      <c r="J38">
+        <v>0.745923182249939</v>
+      </c>
+      <c r="K38">
+        <v>-0.1939385516527068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-3.125987038661222</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>-1.556022103400451</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>0.6578810815307612</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>0.07128339211793411</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>-1.538822893187017</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>-2.02788554642224</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>-0.02620862848402794</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>-1.2669523766302</v>
+      </c>
+      <c r="J39">
+        <v>-2.206814110532846</v>
+      </c>
+      <c r="K39">
+        <v>-1.098221790391733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>1.569964935260771</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>3.783868120191983</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>3.197270430779156</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>1.587164145474205</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>1.098101492238982</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>3.099778410177194</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>1.859034662031022</v>
+      </c>
+      <c r="I40">
+        <v>0.9191729281283758</v>
+      </c>
+      <c r="J40">
+        <v>2.027765248269489</v>
+      </c>
+      <c r="K40">
+        <v>1.458009860117329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>2.213903184931212</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>1.627305495518385</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>0.01719921021343401</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>-0.471863443021789</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>1.529813474916423</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.2890697267702507</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>-0.6507920071323952</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.4578003130087183</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.1119550751434417</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>0.2291824545487202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.5865976894128271</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-2.196703974717778</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-2.685766627953001</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>-0.6840897100147891</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-1.924833458160962</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-2.864695192063607</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-1.756102871922494</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-2.325858260074654</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-1.984720730382492</v>
+      </c>
+      <c r="K42">
+        <v>-2.063877633653363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-1.610106285304951</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-2.099168938540174</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.09749202060196205</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-1.338235768748135</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-2.27809750265078</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-1.169505182509667</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-1.739260570661827</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-1.398123040969665</v>
+      </c>
+      <c r="J43">
+        <v>-1.477279944240536</v>
+      </c>
+      <c r="K43">
+        <v>-1.676109277840581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.489062653235223</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>1.512614264702989</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.2718705165568167</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>-0.6679912173458291</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.4406011027952843</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>-0.1291542853568757</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>0.2119832443352862</v>
+      </c>
+      <c r="I44">
+        <v>0.1328263410644154</v>
+      </c>
+      <c r="J44">
+        <v>-0.0660029925356298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>2.001676917938212</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>0.7609331697920396</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>-0.1789285641106062</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>0.9296637560305072</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>0.3599083678783472</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>0.7010458975705092</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>0.6218889942996384</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>0.4230596606995932</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-1.240743748146172</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>-2.180605482048819</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>-1.072013161907705</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-1.641768550059865</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-1.300631020367703</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-1.379787923638574</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-1.578617257238619</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.9398617339026458</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.1687305862384677</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.4010248019136924</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.05988727222153045</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.1390441754924012</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.3378735090924465</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>1.108592320141113</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>0.5388369319889534</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>0.8799744616811154</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>0.8008175584102446</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>0.6019882248101993</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.56975538815216</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.2286178584599981</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.3077747617308689</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.5066040953309141</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>0.3411375296921619</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>0.2619806264212912</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>0.06315129282124593</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>-0.07915690327087077</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>-0.277986236870916</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.1988293336000452</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>3.720397945418242</v>
+      </c>
+      <c r="C2">
         <v>0.4579015631724133</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.338322726705314</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.129979978836559</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8.053710067350124</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9.30234351958903</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.356502662527745</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-1.028015475570769</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.562434195618991</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-2.143902545412814</v>
-      </c>
-      <c r="K2">
-        <v>-3.825980538631669</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>4.880421163532901</v>
+      </c>
+      <c r="C3">
         <v>-0.3279215843358543</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7.595808504177711</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.844441956416617</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8.898601099355332</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.485917038743183</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5.104532632446578</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-2.601804108585227</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-4.283882101804082</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.554396154886178</v>
-      </c>
-      <c r="K3">
-        <v>2.691300087265333</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>7.923730088513565</v>
+      </c>
+      <c r="C4">
         <v>9.172363540752471</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9.226522683691186</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-1.157995454407328</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5.432454216782432</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-2.273882524249373</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-3.955960517468228</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.882317739222032</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.019221671601187</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.352675024357012</v>
-      </c>
-      <c r="K4">
-        <v>0.924205561443642</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.05415914293871538</v>
+      </c>
+      <c r="C5">
         <v>-10.3303589951598</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-3.739909323970039</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-11.44624606500184</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-13.1283240582207</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-7.290045801530439</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-6.153141869151284</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-6.819688516395459</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-8.248157979308829</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-7.99978088906802</v>
-      </c>
-      <c r="K5">
-        <v>-4.568309330312346</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>6.59044967118976</v>
+      </c>
+      <c r="C6">
         <v>-1.115887069842045</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-2.797965063060899</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.04031319362936</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.177217126008515</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3.51067047876434</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.08220101585097</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2.330578106091779</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5.762049664847454</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4.951683530612301</v>
-      </c>
-      <c r="K6">
-        <v>2.734985928774834</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.682077993218854</v>
+      </c>
+      <c r="C7">
         <v>4.156200263471405</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.29310419585056</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4.626557548606385</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.198088085693015</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.446465175933824</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6.877936734689499</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>6.067570600454346</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.850872998616879</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5.045967226851999</v>
-      </c>
-      <c r="K7">
-        <v>7.402503476503583</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>1.136903932379155</v>
+      </c>
+      <c r="C8">
         <v>0.47035728513498</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.9581121777783901</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.709735087537581</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.721736471218093</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.91137033698294</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.305327264854526</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.889766963380594</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.246303213032177</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4.033642100495049</v>
-      </c>
-      <c r="K8">
-        <v>0.0005631877931331353</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-1.42846946291337</v>
+      </c>
+      <c r="C9">
         <v>-1.180092372672561</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2.251379186083113</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.44101305184796</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.775684549989506</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.419409678245614</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.775945927897197</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.563284815360069</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.4697940973418469</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.6515619442103713</v>
-      </c>
-      <c r="K9">
-        <v>0.177956793679755</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>3.431471558755674</v>
+      </c>
+      <c r="C10">
         <v>2.621105424520521</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.404407822683055</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.599502050918175</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.956038300569758</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.74337718803263</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.7102982753307141</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.831654316882932</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.358049166352316</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.4348698882698301</v>
-      </c>
-      <c r="K10">
-        <v>1.524172574681856</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-2.216697601837466</v>
+      </c>
+      <c r="C11">
         <v>-1.021603373602346</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.334932876049236</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.122271763512109</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-1.910807149189807</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.7894511076375892</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-1.263056258168205</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-2.186235536250691</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-1.096932849838665</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1.655518713997182</v>
-      </c>
-      <c r="K11">
-        <v>-1.835224367312363</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>2.356536249651583</v>
+      </c>
+      <c r="C12">
         <v>3.143875137114455</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.8892037755874609</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2321522659647572</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.241452884565859</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-1.164632162648345</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.07532947623631903</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.6339153403948359</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.8136209937100169</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.4201700006923941</v>
-      </c>
-      <c r="K12">
-        <v>0.5568943103860138</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-4.033078912701916</v>
+      </c>
+      <c r="C13">
         <v>-2.911722871149698</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-3.385328021680314</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-4.3085072997628</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-3.219204613350774</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-3.777790477509291</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-3.957496130824472</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-3.564045137806849</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-2.586980826728441</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-3.244719845809078</v>
-      </c>
-      <c r="K13">
-        <v>-2.620184215815903</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.4736051505306162</v>
+      </c>
+      <c r="C14">
         <v>-1.396784428613102</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.3074817422010763</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.8660676063595931</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-1.045773259674774</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.6523222666571513</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.3247420444212566</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.3329969746593802</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.2915386553337953</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.5846945310764653</v>
-      </c>
-      <c r="K14">
-        <v>0.7149502265313572</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>1.089302686412026</v>
+      </c>
+      <c r="C15">
         <v>0.530716822253509</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.351011168938328</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.7444621619559508</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.721526473034359</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.063787453953722</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.688323083946897</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.8120898975366369</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.111734655144459</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.047376613937643</v>
-      </c>
-      <c r="K15">
-        <v>-0.2808833795217542</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.1797056533151811</v>
+      </c>
+      <c r="C16">
         <v>0.2137453397024418</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.19080965078085</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.533070631700213</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.157606261693388</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.2813730752831278</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.58101783289095</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.516659791684134</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.8116002017752633</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.279469939897808</v>
-      </c>
-      <c r="K16">
-        <v>-0.718957825128143</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.9770643110784079</v>
+      </c>
+      <c r="C17">
         <v>0.3193252919977712</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.9438609219909466</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.06762773558068602</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.367272493188509</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.302914451981692</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-1.025345541477705</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.065724600195367</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.9327031648305848</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.5720072326399475</v>
-      </c>
-      <c r="K17">
-        <v>-0.525244647894255</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.6245356299931755</v>
+      </c>
+      <c r="C18">
         <v>-0.2516975564170851</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.047947201190737</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.9835891599839213</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-1.344670833475476</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.7463993081975955</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-1.252028456828356</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.2526819406421763</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.8445699398920261</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2.23980046762793</v>
-      </c>
-      <c r="K18">
-        <v>-0.565254107112708</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>1.299644757607822</v>
+      </c>
+      <c r="C19">
         <v>1.235286716401006</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-1.092973277058391</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.9980968646146806</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1.000330900411271</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.5043794970592614</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-0.592872383474941</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2.491498024045015</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.3135565506956228</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.09641740222616302</v>
-      </c>
-      <c r="K19">
-        <v>0.6618216809464883</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-2.328259993459397</v>
+      </c>
+      <c r="C20">
         <v>-0.2371898517863258</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-2.235617616812277</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.730907219341745</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1.828159099875947</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.256211307644009</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1.548843267096629</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-1.138869314174843</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.5734650354545181</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-0.5388693141748433</v>
-      </c>
-      <c r="K20">
-        <v>0.4351450379494395</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-1.998427765025951</v>
+      </c>
+      <c r="C21">
         <v>-0.4937173675554191</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-1.590969248089622</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1.493401159430334</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-1.311653415310303</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.9016794623885176</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-0.3362751836681923</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.3016794623885174</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6723348897357653</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3296514623254155</v>
-      </c>
-      <c r="K21">
-        <v>-0.8736368315979635</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>-1.097251880534202</v>
+      </c>
+      <c r="C22">
         <v>1.987118526985754</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.8179360477548843</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.4079620948330984</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1574421838872269</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1920379051669017</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.166052257291184</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.8233688298808346</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.3799194640425443</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2.492037905166902</v>
-      </c>
-      <c r="K22">
-        <v>16.91773480187646</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>3.084370407519956</v>
+      </c>
+      <c r="C23">
         <v>0.2793158327793182</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.689289785701104</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1.254694064421429</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.289289785701104</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2.263304137825387</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.920620710415037</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.7173324164916581</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.589289785701104</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>18.01498668241067</v>
-      </c>
-      <c r="K23">
-        <v>-5.980262731155676</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-2.805054574740638</v>
+      </c>
+      <c r="C24">
         <v>-2.395080621818852</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-1.829676343098527</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-1.795080621818852</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.8210662696945692</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-1.163749697104919</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-2.367037991028298</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.5049193781811481</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>14.93061627489071</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-9.064633138675632</v>
-      </c>
-      <c r="K24">
-        <v>-3.212868732817043</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.4099739529217858</v>
+      </c>
+      <c r="C25">
         <v>0.9753782316421111</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.009973952921786</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.983988305046069</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.641304877635719</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.43801658371234</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.309973952921786</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17.73567084963135</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-6.259578563934994</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.4078141580764052</v>
-      </c>
-      <c r="K25">
-        <v>2.696097958522756</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.5654042787203253</v>
+      </c>
+      <c r="C26">
         <v>0.6000000000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.574014352124283</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.231330924713933</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.02804263079055413</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>17.32569689670956</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-6.66955251685678</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.817788110998191</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.28612400560097</v>
-      </c>
-      <c r="K26">
-        <v>-1.576944405321424</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>0.03459572127967481</v>
+      </c>
+      <c r="C27">
         <v>1.008610073403958</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.6659266459936077</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.5373616479297711</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.334595721279675</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>16.76029261798924</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-7.234956795577105</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-1.383192389718516</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.720719726880645</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-2.142348684041749</v>
-      </c>
-      <c r="K27">
-        <v>0.2981199544020541</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>0.9740143521242828</v>
+      </c>
+      <c r="C28">
         <v>0.6313309247139329</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.571957369209446</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2.3</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>16.72569689670956</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-7.26955251685678</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-1.417788110998191</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.686124005600971</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-2.176944405321424</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.2635242331223793</v>
-      </c>
-      <c r="K28">
-        <v>0.04576459045484849</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>-0.3426834274103499</v>
+      </c>
+      <c r="C29">
         <v>-1.545971721333729</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.325985647875717</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>15.75168254458528</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-8.243566868981063</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-2.391802463122474</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.7121096534766878</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-3.150958757445707</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.7104901190019035</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-0.9282497616694343</v>
-      </c>
-      <c r="K29">
-        <v>1.084625797210705</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-1.203288293923379</v>
+      </c>
+      <c r="C30">
         <v>1.668669075286067</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>16.09436597199563</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-7.900883441570713</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-2.049119035712124</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.054793080887038</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-2.808275330035357</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.3678066915915537</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.5855663342590844</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.427309224621055</v>
-      </c>
-      <c r="K30">
-        <v>-1.698677814040167</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>2.871957369209446</v>
+      </c>
+      <c r="C31">
         <v>17.29765426591901</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-6.697595147647334</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-0.8458307417887452</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.258081374810416</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1.604987036111978</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.8354816023318252</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.6177219596642944</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.630597518544434</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-0.4953895201167882</v>
-      </c>
-      <c r="K31">
-        <v>1.074575415143983</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>14.42569689670956</v>
+      </c>
+      <c r="C32">
         <v>-9.569552516856779</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-3.717788110998191</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-0.6138759943990295</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-4.476944405321424</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-2.036475766877621</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-2.254235409545152</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-0.2413598506650121</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-3.367346889326234</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-1.797381954065463</v>
-      </c>
-      <c r="K32">
-        <v>0.4165212308657491</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>5.851764405858589</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>8.95567652245775</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>5.092608111535355</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>7.533076749979159</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7.315317107311628</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>9.328192666191768</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>6.202205627530546</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>7.772170562791317</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>9.986073747722529</v>
-      </c>
-      <c r="K33">
-        <v>9.399476058309702</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>3.103912116599162</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-0.7591562943232328</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.68131234412057</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.46355270145304</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3.476428260333179</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.350441221671957</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.920406156932728</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>4.13430934186394</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3.547711652451113</v>
-      </c>
-      <c r="K34">
-        <v>1.937605367146162</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>-3.863068410922395</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-1.422599772478591</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-1.640359415146122</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.3725161437340174</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.753470894927204</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-1.183505959666434</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.030397225264779</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.4437995358519515</v>
-      </c>
-      <c r="J35">
-        <v>-1.166306749453</v>
-      </c>
-      <c r="K35">
-        <v>-1.655369402688223</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>2.440468638443803</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2.222708995776272</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4.235584554656412</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.10959751599519</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2.679562451255961</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>4.893465636187173</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.306867946774346</v>
-      </c>
-      <c r="I36">
-        <v>2.696761661469395</v>
-      </c>
-      <c r="J36">
-        <v>2.207699008234172</v>
-      </c>
-      <c r="K36">
-        <v>4.209375926172384</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>-0.2177596426675308</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.795115916212609</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-1.330871122448613</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.2390938128121576</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2.45299699774337</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.866399308330543</v>
-      </c>
-      <c r="H37">
-        <v>0.2562930230255916</v>
-      </c>
-      <c r="I37">
-        <v>-0.2327696302096314</v>
-      </c>
-      <c r="J37">
-        <v>1.768907287728581</v>
-      </c>
-      <c r="K37">
-        <v>0.5281635395824082</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>2.01287555888014</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-1.113111479781083</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.4568534554796884</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.670756640410901</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2.084158950998074</v>
-      </c>
-      <c r="G38">
-        <v>0.4740526656931224</v>
-      </c>
-      <c r="H38">
-        <v>-0.01500998754210059</v>
-      </c>
-      <c r="I38">
-        <v>1.986666930396112</v>
-      </c>
-      <c r="J38">
-        <v>0.745923182249939</v>
-      </c>
-      <c r="K38">
-        <v>-0.1939385516527068</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>-3.125987038661222</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-1.556022103400451</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.6578810815307612</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.07128339211793411</v>
-      </c>
-      <c r="F39">
-        <v>-1.538822893187017</v>
-      </c>
-      <c r="G39">
-        <v>-2.02788554642224</v>
-      </c>
-      <c r="H39">
-        <v>-0.02620862848402794</v>
-      </c>
-      <c r="I39">
-        <v>-1.2669523766302</v>
-      </c>
-      <c r="J39">
-        <v>-2.206814110532846</v>
-      </c>
-      <c r="K39">
-        <v>-1.098221790391733</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1.569964935260771</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>3.783868120191983</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>3.197270430779156</v>
-      </c>
-      <c r="E40">
-        <v>1.587164145474205</v>
-      </c>
-      <c r="F40">
-        <v>1.098101492238982</v>
-      </c>
-      <c r="G40">
-        <v>3.099778410177194</v>
-      </c>
-      <c r="H40">
-        <v>1.859034662031022</v>
-      </c>
-      <c r="I40">
-        <v>0.9191729281283758</v>
-      </c>
-      <c r="J40">
-        <v>2.027765248269489</v>
-      </c>
-      <c r="K40">
-        <v>1.458009860117329</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>2.213903184931212</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>1.627305495518385</v>
-      </c>
-      <c r="D41">
-        <v>0.01719921021343401</v>
-      </c>
-      <c r="E41">
-        <v>-0.471863443021789</v>
-      </c>
-      <c r="F41">
-        <v>1.529813474916423</v>
-      </c>
-      <c r="G41">
-        <v>0.2890697267702507</v>
-      </c>
-      <c r="H41">
-        <v>-0.6507920071323952</v>
-      </c>
-      <c r="I41">
-        <v>0.4578003130087183</v>
-      </c>
-      <c r="J41">
-        <v>-0.1119550751434417</v>
-      </c>
-      <c r="K41">
-        <v>0.2291824545487202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>-0.5865976894128271</v>
-      </c>
-      <c r="C42">
-        <v>-2.196703974717778</v>
-      </c>
-      <c r="D42">
-        <v>-2.685766627953001</v>
-      </c>
-      <c r="E42">
-        <v>-0.6840897100147891</v>
-      </c>
-      <c r="F42">
-        <v>-1.924833458160962</v>
-      </c>
-      <c r="G42">
-        <v>-2.864695192063607</v>
-      </c>
-      <c r="H42">
-        <v>-1.756102871922494</v>
-      </c>
-      <c r="I42">
-        <v>-2.325858260074654</v>
-      </c>
-      <c r="J42">
-        <v>-1.984720730382492</v>
-      </c>
-      <c r="K42">
-        <v>-2.063877633653363</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-1.610106285304951</v>
-      </c>
-      <c r="C43">
-        <v>-2.099168938540174</v>
-      </c>
-      <c r="D43">
-        <v>-0.09749202060196205</v>
-      </c>
-      <c r="E43">
-        <v>-1.338235768748135</v>
-      </c>
-      <c r="F43">
-        <v>-2.27809750265078</v>
-      </c>
-      <c r="G43">
-        <v>-1.169505182509667</v>
-      </c>
-      <c r="H43">
-        <v>-1.739260570661827</v>
-      </c>
-      <c r="I43">
-        <v>-1.398123040969665</v>
-      </c>
-      <c r="J43">
-        <v>-1.477279944240536</v>
-      </c>
-      <c r="K43">
-        <v>-1.676109277840581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.489062653235223</v>
-      </c>
-      <c r="C44">
-        <v>1.512614264702989</v>
-      </c>
-      <c r="D44">
-        <v>0.2718705165568167</v>
-      </c>
-      <c r="E44">
-        <v>-0.6679912173458291</v>
-      </c>
-      <c r="F44">
-        <v>0.4406011027952843</v>
-      </c>
-      <c r="G44">
-        <v>-0.1291542853568757</v>
-      </c>
-      <c r="H44">
-        <v>0.2119832443352862</v>
-      </c>
-      <c r="I44">
-        <v>0.1328263410644154</v>
-      </c>
-      <c r="J44">
-        <v>-0.0660029925356298</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>2.001676917938212</v>
-      </c>
-      <c r="C45">
-        <v>0.7609331697920396</v>
-      </c>
-      <c r="D45">
-        <v>-0.1789285641106062</v>
-      </c>
-      <c r="E45">
-        <v>0.9296637560305072</v>
-      </c>
-      <c r="F45">
-        <v>0.3599083678783472</v>
-      </c>
-      <c r="G45">
-        <v>0.7010458975705092</v>
-      </c>
-      <c r="H45">
-        <v>0.6218889942996384</v>
-      </c>
-      <c r="I45">
-        <v>0.4230596606995932</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-1.240743748146172</v>
-      </c>
-      <c r="C46">
-        <v>-2.180605482048819</v>
-      </c>
-      <c r="D46">
-        <v>-1.072013161907705</v>
-      </c>
-      <c r="E46">
-        <v>-1.641768550059865</v>
-      </c>
-      <c r="F46">
-        <v>-1.300631020367703</v>
-      </c>
-      <c r="G46">
-        <v>-1.379787923638574</v>
-      </c>
-      <c r="H46">
-        <v>-1.578617257238619</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.9398617339026458</v>
-      </c>
-      <c r="C47">
-        <v>0.1687305862384677</v>
-      </c>
-      <c r="D47">
-        <v>-0.4010248019136924</v>
-      </c>
-      <c r="E47">
-        <v>-0.05988727222153045</v>
-      </c>
-      <c r="F47">
-        <v>-0.1390441754924012</v>
-      </c>
-      <c r="G47">
-        <v>-0.3378735090924465</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>1.108592320141113</v>
-      </c>
-      <c r="C48">
-        <v>0.5388369319889534</v>
-      </c>
-      <c r="D48">
-        <v>0.8799744616811154</v>
-      </c>
-      <c r="E48">
-        <v>0.8008175584102446</v>
-      </c>
-      <c r="F48">
-        <v>0.6019882248101993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.56975538815216</v>
-      </c>
-      <c r="C49">
-        <v>-0.2286178584599981</v>
-      </c>
-      <c r="D49">
-        <v>-0.3077747617308689</v>
-      </c>
-      <c r="E49">
-        <v>-0.5066040953309141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>0.3411375296921619</v>
-      </c>
-      <c r="C50">
-        <v>0.2619806264212912</v>
-      </c>
-      <c r="D50">
-        <v>0.06315129282124593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>-0.07915690327087077</v>
-      </c>
-      <c r="C51">
-        <v>-0.277986236870916</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.1988293336000452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>14.93061627489071</v>
       </c>
       <c r="K24">
-        <v>-9.064633138675632</v>
+        <v>-10.15409240999935</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>17.73567084963135</v>
       </c>
       <c r="J25">
-        <v>-6.259578563934994</v>
+        <v>-7.349037835258713</v>
       </c>
       <c r="K25">
-        <v>-0.4078141580764052</v>
+        <v>-1.996536364888143</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>17.32569689670956</v>
       </c>
       <c r="I26">
-        <v>-6.66955251685678</v>
+        <v>-7.759011788180499</v>
       </c>
       <c r="J26">
-        <v>-0.817788110998191</v>
+        <v>-2.406510317809929</v>
       </c>
       <c r="K26">
-        <v>2.28612400560097</v>
+        <v>-2.512938874122935</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>16.76029261798924</v>
       </c>
       <c r="H27">
-        <v>-7.234956795577105</v>
+        <v>-8.324416066900824</v>
       </c>
       <c r="I27">
-        <v>-1.383192389718516</v>
+        <v>-2.971914596530254</v>
       </c>
       <c r="J27">
-        <v>1.720719726880645</v>
+        <v>-3.07834315284326</v>
       </c>
       <c r="K27">
-        <v>-2.142348684041749</v>
+        <v>-1.329627155229175</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>16.72569689670956</v>
       </c>
       <c r="G28">
-        <v>-7.26955251685678</v>
+        <v>-8.359011788180499</v>
       </c>
       <c r="H28">
-        <v>-1.417788110998191</v>
+        <v>-3.006510317809929</v>
       </c>
       <c r="I28">
-        <v>1.686124005600971</v>
+        <v>-3.112938874122935</v>
       </c>
       <c r="J28">
-        <v>-2.176944405321424</v>
+        <v>-1.36422287650885</v>
       </c>
       <c r="K28">
-        <v>0.2635242331223793</v>
+        <v>1.261604321912398</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>15.75168254458528</v>
       </c>
       <c r="F29">
-        <v>-8.243566868981063</v>
+        <v>-9.333026140304781</v>
       </c>
       <c r="G29">
-        <v>-2.391802463122474</v>
+        <v>-3.980524669934212</v>
       </c>
       <c r="H29">
-        <v>0.7121096534766878</v>
+        <v>-4.086953226247218</v>
       </c>
       <c r="I29">
-        <v>-3.150958757445707</v>
+        <v>-2.338237228633133</v>
       </c>
       <c r="J29">
-        <v>-0.7104901190019035</v>
+        <v>0.2875899697881152</v>
       </c>
       <c r="K29">
-        <v>-0.9282497616694343</v>
+        <v>-5.355989324100946</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>16.09436597199563</v>
       </c>
       <c r="E30">
-        <v>-7.900883441570713</v>
+        <v>-8.990342712894432</v>
       </c>
       <c r="F30">
-        <v>-2.049119035712124</v>
+        <v>-3.637841242523862</v>
       </c>
       <c r="G30">
-        <v>1.054793080887038</v>
+        <v>-3.744269798836868</v>
       </c>
       <c r="H30">
-        <v>-2.808275330035357</v>
+        <v>-1.995553801222783</v>
       </c>
       <c r="I30">
-        <v>-0.3678066915915537</v>
+        <v>0.6302733971984651</v>
       </c>
       <c r="J30">
-        <v>-0.5855663342590844</v>
+        <v>-5.013305896690596</v>
       </c>
       <c r="K30">
-        <v>1.427309224621055</v>
+        <v>-0.8595623955320235</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>17.29765426591901</v>
       </c>
       <c r="D31">
-        <v>-6.697595147647334</v>
+        <v>-7.787054418971053</v>
       </c>
       <c r="E31">
-        <v>-0.8458307417887452</v>
+        <v>-2.434552948600483</v>
       </c>
       <c r="F31">
-        <v>2.258081374810416</v>
+        <v>-2.540981504913489</v>
       </c>
       <c r="G31">
-        <v>-1.604987036111978</v>
+        <v>-0.792265507299404</v>
       </c>
       <c r="H31">
-        <v>0.8354816023318252</v>
+        <v>1.833561691121844</v>
       </c>
       <c r="I31">
-        <v>0.6177219596642944</v>
+        <v>-3.810017602767218</v>
       </c>
       <c r="J31">
-        <v>2.630597518544434</v>
+        <v>0.3437258983913554</v>
       </c>
       <c r="K31">
-        <v>-0.4953895201167882</v>
+        <v>-0.3221206215403352</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>14.42569689670956</v>
       </c>
       <c r="C32">
-        <v>-9.569552516856779</v>
+        <v>-10.6590117881805</v>
       </c>
       <c r="D32">
-        <v>-3.717788110998191</v>
+        <v>-5.306510317809929</v>
       </c>
       <c r="E32">
-        <v>-0.6138759943990295</v>
+        <v>-5.412938874122935</v>
       </c>
       <c r="F32">
-        <v>-4.476944405321424</v>
+        <v>-3.66422287650885</v>
       </c>
       <c r="G32">
-        <v>-2.036475766877621</v>
+        <v>-1.038395678087602</v>
       </c>
       <c r="H32">
-        <v>-2.254235409545152</v>
+        <v>-6.681974971976663</v>
       </c>
       <c r="I32">
-        <v>-0.2413598506650121</v>
+        <v>-2.528231470818091</v>
       </c>
       <c r="J32">
-        <v>-3.367346889326234</v>
+        <v>-3.194077990749781</v>
       </c>
       <c r="K32">
-        <v>-1.797381954065463</v>
+        <v>-3.951141586996604</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-25.08470868489006</v>
       </c>
       <c r="C33">
-        <v>5.851764405858589</v>
+        <v>-19.73220721451949</v>
       </c>
       <c r="D33">
-        <v>8.95567652245775</v>
+        <v>-19.8386357708325</v>
       </c>
       <c r="E33">
-        <v>5.092608111535355</v>
+        <v>-18.08991977321841</v>
       </c>
       <c r="F33">
-        <v>7.533076749979159</v>
+        <v>-15.46409257479716</v>
       </c>
       <c r="G33">
-        <v>7.315317107311628</v>
+        <v>-21.10767186868623</v>
       </c>
       <c r="H33">
-        <v>9.328192666191768</v>
+        <v>-16.95392836752765</v>
       </c>
       <c r="I33">
-        <v>6.202205627530546</v>
+        <v>-17.61977488745934</v>
       </c>
       <c r="J33">
-        <v>7.772170562791317</v>
+        <v>-18.37683848370617</v>
       </c>
       <c r="K33">
-        <v>9.986073747722529</v>
+        <v>-14.68761087779509</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>5.352501470370569</v>
       </c>
       <c r="C34">
-        <v>3.103912116599162</v>
+        <v>5.246072914057564</v>
       </c>
       <c r="D34">
-        <v>-0.7591562943232328</v>
+        <v>6.994788911671648</v>
       </c>
       <c r="E34">
-        <v>1.68131234412057</v>
+        <v>9.620616110092897</v>
       </c>
       <c r="F34">
-        <v>1.46355270145304</v>
+        <v>3.977036816203835</v>
       </c>
       <c r="G34">
-        <v>3.476428260333179</v>
+        <v>8.130780317362408</v>
       </c>
       <c r="H34">
-        <v>0.350441221671957</v>
+        <v>7.464933797430717</v>
       </c>
       <c r="I34">
-        <v>1.920406156932728</v>
+        <v>6.707870201183894</v>
       </c>
       <c r="J34">
-        <v>4.13430934186394</v>
+        <v>10.39709780709497</v>
       </c>
       <c r="K34">
-        <v>3.547711652451113</v>
+        <v>9.963901476152344</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.1064285563130061</v>
       </c>
       <c r="C35">
-        <v>-3.863068410922395</v>
+        <v>1.642287441301079</v>
       </c>
       <c r="D35">
-        <v>-1.422599772478591</v>
+        <v>4.268114639722327</v>
       </c>
       <c r="E35">
-        <v>-1.640359415146122</v>
+        <v>-1.375464654166735</v>
       </c>
       <c r="F35">
-        <v>0.3725161437340174</v>
+        <v>2.778278846991838</v>
       </c>
       <c r="G35">
-        <v>-2.753470894927204</v>
+        <v>2.112432327060148</v>
       </c>
       <c r="H35">
-        <v>-1.183505959666434</v>
+        <v>1.355368730813325</v>
       </c>
       <c r="I35">
-        <v>1.030397225264779</v>
+        <v>5.044596336724396</v>
       </c>
       <c r="J35">
-        <v>0.4437995358519515</v>
+        <v>4.611400005781775</v>
+      </c>
+      <c r="K35">
+        <v>3.714584630134098</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1.748715997614085</v>
       </c>
       <c r="C36">
-        <v>2.440468638443803</v>
+        <v>4.374543196035333</v>
       </c>
       <c r="D36">
-        <v>2.222708995776272</v>
+        <v>-1.269036097853729</v>
       </c>
       <c r="E36">
-        <v>4.235584554656412</v>
+        <v>2.884707403304844</v>
       </c>
       <c r="F36">
-        <v>1.10959751599519</v>
+        <v>2.218860883373154</v>
       </c>
       <c r="G36">
-        <v>2.679562451255961</v>
+        <v>1.461797287126331</v>
       </c>
       <c r="H36">
-        <v>4.893465636187173</v>
+        <v>5.151024893037402</v>
       </c>
       <c r="I36">
-        <v>4.306867946774346</v>
+        <v>4.71782856209478</v>
+      </c>
+      <c r="J36">
+        <v>3.821013186447104</v>
+      </c>
+      <c r="K36">
+        <v>5.08770374598177</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2.625827198421248</v>
       </c>
       <c r="C37">
-        <v>-0.2177596426675308</v>
+        <v>-3.017752095467813</v>
       </c>
       <c r="D37">
-        <v>1.795115916212609</v>
+        <v>1.135991405690759</v>
       </c>
       <c r="E37">
-        <v>-1.330871122448613</v>
+        <v>0.4701448857590689</v>
       </c>
       <c r="F37">
-        <v>0.2390938128121576</v>
+        <v>-0.286918710487754</v>
       </c>
       <c r="G37">
-        <v>2.45299699774337</v>
+        <v>3.402308895423317</v>
       </c>
       <c r="H37">
-        <v>1.866399308330543</v>
+        <v>2.969112564480695</v>
+      </c>
+      <c r="I37">
+        <v>2.072297188833019</v>
+      </c>
+      <c r="J37">
+        <v>3.338987748367685</v>
+      </c>
+      <c r="K37">
+        <v>3.74600879241737</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-5.643579293889061</v>
       </c>
       <c r="C38">
-        <v>2.01287555888014</v>
+        <v>-1.489835792730489</v>
       </c>
       <c r="D38">
-        <v>-1.113111479781083</v>
+        <v>-2.155682312662179</v>
       </c>
       <c r="E38">
-        <v>0.4568534554796884</v>
+        <v>-2.912745908909002</v>
       </c>
       <c r="F38">
-        <v>2.670756640410901</v>
+        <v>0.7764816970020689</v>
       </c>
       <c r="G38">
-        <v>2.084158950998074</v>
+        <v>0.3432853660594475</v>
+      </c>
+      <c r="H38">
+        <v>-0.5535300095882292</v>
+      </c>
+      <c r="I38">
+        <v>0.7131605499464369</v>
+      </c>
+      <c r="J38">
+        <v>1.120181593996122</v>
+      </c>
+      <c r="K38">
+        <v>-1.176625030627534</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4.153743501158573</v>
       </c>
       <c r="C39">
-        <v>-3.125987038661222</v>
+        <v>3.487896981226882</v>
       </c>
       <c r="D39">
-        <v>-1.556022103400451</v>
+        <v>2.730833384980059</v>
       </c>
       <c r="E39">
-        <v>0.6578810815307612</v>
+        <v>6.42006099089113</v>
       </c>
       <c r="F39">
-        <v>0.07128339211793411</v>
+        <v>5.986864659948509</v>
+      </c>
+      <c r="G39">
+        <v>5.090049284300832</v>
+      </c>
+      <c r="H39">
+        <v>6.356739843835499</v>
+      </c>
+      <c r="I39">
+        <v>6.763760887885184</v>
+      </c>
+      <c r="J39">
+        <v>4.466954263261528</v>
+      </c>
+      <c r="K39">
+        <v>5.055752123058397</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-0.6658465199316905</v>
       </c>
       <c r="C40">
-        <v>1.569964935260771</v>
+        <v>-1.422910116178513</v>
       </c>
       <c r="D40">
-        <v>3.783868120191983</v>
+        <v>2.266317489732558</v>
       </c>
       <c r="E40">
-        <v>3.197270430779156</v>
+        <v>1.833121158789936</v>
+      </c>
+      <c r="F40">
+        <v>0.9363057831422594</v>
+      </c>
+      <c r="G40">
+        <v>2.202996342676926</v>
+      </c>
+      <c r="H40">
+        <v>2.610017386726611</v>
+      </c>
+      <c r="I40">
+        <v>0.3132107621029547</v>
+      </c>
+      <c r="J40">
+        <v>0.9020086218998244</v>
+      </c>
+      <c r="K40">
+        <v>0.7731291372494979</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.7570635962468228</v>
       </c>
       <c r="C41">
-        <v>2.213903184931212</v>
+        <v>2.932164009664248</v>
       </c>
       <c r="D41">
-        <v>1.627305495518385</v>
+        <v>2.498967678721627</v>
+      </c>
+      <c r="E41">
+        <v>1.60215230307395</v>
+      </c>
+      <c r="F41">
+        <v>2.868842862608616</v>
+      </c>
+      <c r="G41">
+        <v>3.275863906658301</v>
+      </c>
+      <c r="H41">
+        <v>0.9790572820346453</v>
+      </c>
+      <c r="I41">
+        <v>1.567855141831515</v>
+      </c>
+      <c r="J41">
+        <v>1.438975657181188</v>
+      </c>
+      <c r="K41">
+        <v>1.046227481711355</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3.689227605911071</v>
       </c>
       <c r="C42">
-        <v>-0.5865976894128271</v>
+        <v>3.256031274968449</v>
+      </c>
+      <c r="D42">
+        <v>2.359215899320773</v>
+      </c>
+      <c r="E42">
+        <v>3.625906458855439</v>
+      </c>
+      <c r="F42">
+        <v>4.032927502905124</v>
+      </c>
+      <c r="G42">
+        <v>1.736120878281468</v>
+      </c>
+      <c r="H42">
+        <v>2.324918738078338</v>
+      </c>
+      <c r="I42">
+        <v>2.196039253428011</v>
+      </c>
+      <c r="J42">
+        <v>1.803291077958178</v>
+      </c>
+      <c r="K42">
+        <v>1.276334624211031</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.4331963309426214</v>
+      </c>
+      <c r="C43">
+        <v>-1.330011706590298</v>
+      </c>
+      <c r="D43">
+        <v>-0.06332114705563208</v>
+      </c>
+      <c r="E43">
+        <v>0.343699896994053</v>
+      </c>
+      <c r="F43">
+        <v>-1.953106727629603</v>
+      </c>
+      <c r="G43">
+        <v>-1.364308867832733</v>
+      </c>
+      <c r="H43">
+        <v>-1.49318835248306</v>
+      </c>
+      <c r="I43">
+        <v>-1.885936527952893</v>
+      </c>
+      <c r="J43">
+        <v>-2.41289298170004</v>
+      </c>
+      <c r="K43">
+        <v>-2.98034896160172</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.8968153756476767</v>
+      </c>
+      <c r="C44">
+        <v>0.3698751838869894</v>
+      </c>
+      <c r="D44">
+        <v>0.7768962279366745</v>
+      </c>
+      <c r="E44">
+        <v>-1.519910396686981</v>
+      </c>
+      <c r="F44">
+        <v>-0.9311125368901116</v>
+      </c>
+      <c r="G44">
+        <v>-1.059992021540438</v>
+      </c>
+      <c r="H44">
+        <v>-1.452740197010272</v>
+      </c>
+      <c r="I44">
+        <v>-1.979696650757419</v>
+      </c>
+      <c r="J44">
+        <v>-2.547152630659099</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>1.266690559534666</v>
+      </c>
+      <c r="C45">
+        <v>1.673711603584351</v>
+      </c>
+      <c r="D45">
+        <v>-0.6230950210393047</v>
+      </c>
+      <c r="E45">
+        <v>-0.03429716124243498</v>
+      </c>
+      <c r="F45">
+        <v>-0.1631766458927615</v>
+      </c>
+      <c r="G45">
+        <v>-0.5559248213625949</v>
+      </c>
+      <c r="H45">
+        <v>-1.082881275109742</v>
+      </c>
+      <c r="I45">
+        <v>-1.650337255011422</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.4070210440496851</v>
+      </c>
+      <c r="C46">
+        <v>-1.889785580573971</v>
+      </c>
+      <c r="D46">
+        <v>-1.300987720777101</v>
+      </c>
+      <c r="E46">
+        <v>-1.429867205427428</v>
+      </c>
+      <c r="F46">
+        <v>-1.822615380897261</v>
+      </c>
+      <c r="G46">
+        <v>-2.349571834644408</v>
+      </c>
+      <c r="H46">
+        <v>-2.917027814546088</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-2.296806624623656</v>
+      </c>
+      <c r="C47">
+        <v>-1.708008764826786</v>
+      </c>
+      <c r="D47">
+        <v>-1.836888249477113</v>
+      </c>
+      <c r="E47">
+        <v>-2.229636424946946</v>
+      </c>
+      <c r="F47">
+        <v>-2.756592878694093</v>
+      </c>
+      <c r="G47">
+        <v>-3.324048858595773</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0.5887978597968697</v>
+      </c>
+      <c r="C48">
+        <v>0.4599183751465432</v>
+      </c>
+      <c r="D48">
+        <v>0.06717019967670979</v>
+      </c>
+      <c r="E48">
+        <v>-0.4597862540704372</v>
+      </c>
+      <c r="F48">
+        <v>-1.027242233972117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-0.1288794846503265</v>
+      </c>
+      <c r="C49">
+        <v>-0.5216276601201599</v>
+      </c>
+      <c r="D49">
+        <v>-1.048584113867307</v>
+      </c>
+      <c r="E49">
+        <v>-1.616040093768987</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>-0.3927481754698334</v>
+      </c>
+      <c r="C50">
+        <v>-0.9197046292169804</v>
+      </c>
+      <c r="D50">
+        <v>-1.48716060911866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>-0.5269564537471469</v>
+      </c>
+      <c r="C51">
+        <v>-1.094412433648827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.5674559799016801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/IMPORT/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>8.053710067350124</v>
       </c>
-      <c r="G2">
-        <v>9.30234351958903</v>
-      </c>
-      <c r="H2">
-        <v>9.356502662527745</v>
-      </c>
-      <c r="I2">
-        <v>-1.028015475570769</v>
-      </c>
-      <c r="J2">
-        <v>5.562434195618991</v>
-      </c>
-      <c r="K2">
-        <v>-2.143902545412814</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>5.104532632446578</v>
       </c>
-      <c r="I3">
-        <v>-2.601804108585227</v>
-      </c>
-      <c r="J3">
-        <v>-4.283882101804082</v>
-      </c>
-      <c r="K3">
-        <v>1.554396154886178</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>5.432454216782432</v>
       </c>
-      <c r="G4">
-        <v>-2.273882524249373</v>
-      </c>
-      <c r="H4">
-        <v>-3.955960517468228</v>
-      </c>
-      <c r="I4">
-        <v>1.882317739222032</v>
-      </c>
-      <c r="J4">
-        <v>3.019221671601187</v>
-      </c>
-      <c r="K4">
-        <v>2.352675024357012</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-6.153141869151284</v>
       </c>
-      <c r="I5">
-        <v>-6.819688516395459</v>
-      </c>
-      <c r="J5">
-        <v>-8.248157979308829</v>
-      </c>
-      <c r="K5">
-        <v>-7.99978088906802</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>4.177217126008515</v>
       </c>
-      <c r="G6">
-        <v>3.51067047876434</v>
-      </c>
-      <c r="H6">
-        <v>2.08220101585097</v>
-      </c>
-      <c r="I6">
-        <v>2.330578106091779</v>
-      </c>
-      <c r="J6">
-        <v>5.762049664847454</v>
-      </c>
-      <c r="K6">
-        <v>4.951683530612301</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>6.877936734689499</v>
       </c>
-      <c r="I7">
-        <v>6.067570600454346</v>
-      </c>
-      <c r="J7">
-        <v>3.850872998616879</v>
-      </c>
-      <c r="K7">
-        <v>5.045967226851999</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>2.721736471218093</v>
       </c>
-      <c r="G8">
-        <v>1.91137033698294</v>
-      </c>
-      <c r="H8">
-        <v>-0.305327264854526</v>
-      </c>
-      <c r="I8">
-        <v>0.889766963380594</v>
-      </c>
-      <c r="J8">
-        <v>3.246303213032177</v>
-      </c>
-      <c r="K8">
-        <v>4.033642100495049</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>2.775945927897197</v>
       </c>
-      <c r="I9">
-        <v>3.563284815360069</v>
-      </c>
-      <c r="J9">
-        <v>-0.4697940973418469</v>
-      </c>
-      <c r="K9">
-        <v>0.6515619442103713</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>3.956038300569758</v>
       </c>
-      <c r="G10">
-        <v>4.74337718803263</v>
-      </c>
-      <c r="H10">
-        <v>0.7102982753307141</v>
-      </c>
-      <c r="I10">
-        <v>1.831654316882932</v>
-      </c>
-      <c r="J10">
-        <v>1.358049166352316</v>
-      </c>
-      <c r="K10">
-        <v>0.4348698882698301</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>-1.263056258168205</v>
       </c>
-      <c r="I11">
-        <v>-2.186235536250691</v>
-      </c>
-      <c r="J11">
-        <v>-1.096932849838665</v>
-      </c>
-      <c r="K11">
-        <v>-1.655518713997182</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>-0.241452884565859</v>
       </c>
-      <c r="G12">
-        <v>-1.164632162648345</v>
-      </c>
-      <c r="H12">
-        <v>-0.07532947623631903</v>
-      </c>
-      <c r="I12">
-        <v>-0.6339153403948359</v>
-      </c>
-      <c r="J12">
-        <v>-0.8136209937100169</v>
-      </c>
-      <c r="K12">
-        <v>-0.4201700006923941</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-3.957496130824472</v>
       </c>
-      <c r="I13">
-        <v>-3.564045137806849</v>
-      </c>
-      <c r="J13">
-        <v>-2.586980826728441</v>
-      </c>
-      <c r="K13">
-        <v>-3.244719845809078</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-1.045773259674774</v>
       </c>
-      <c r="G14">
-        <v>-0.6523222666571513</v>
-      </c>
-      <c r="H14">
-        <v>0.3247420444212566</v>
-      </c>
-      <c r="I14">
-        <v>-0.3329969746593802</v>
-      </c>
-      <c r="J14">
-        <v>0.2915386553337953</v>
-      </c>
-      <c r="K14">
-        <v>-0.5846945310764653</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>1.688323083946897</v>
       </c>
-      <c r="I15">
-        <v>0.8120898975366369</v>
-      </c>
-      <c r="J15">
-        <v>2.111734655144459</v>
-      </c>
-      <c r="K15">
-        <v>2.047376613937643</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>1.157606261693388</v>
       </c>
-      <c r="G16">
-        <v>0.2813730752831278</v>
-      </c>
-      <c r="H16">
-        <v>1.58101783289095</v>
-      </c>
-      <c r="I16">
-        <v>1.516659791684134</v>
-      </c>
-      <c r="J16">
-        <v>-0.8116002017752633</v>
-      </c>
-      <c r="K16">
-        <v>1.279469939897808</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-1.025345541477705</v>
       </c>
-      <c r="I17">
-        <v>1.065724600195367</v>
-      </c>
-      <c r="J17">
-        <v>-0.9327031648305848</v>
-      </c>
-      <c r="K17">
-        <v>0.5720072326399475</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>-0.8445699398920261</v>
       </c>
-      <c r="K18">
-        <v>2.23980046762793</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>-0.592872383474941</v>
       </c>
-      <c r="I19">
-        <v>2.491498024045015</v>
-      </c>
-      <c r="J19">
-        <v>-0.3135565506956228</v>
-      </c>
-      <c r="K19">
-        <v>0.09641740222616302</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>-0.5734650354545181</v>
       </c>
-      <c r="K20">
-        <v>-0.5388693141748433</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>-0.3362751836681923</v>
       </c>
-      <c r="I21">
-        <v>-0.3016794623885174</v>
-      </c>
-      <c r="J21">
-        <v>0.6723348897357653</v>
-      </c>
-      <c r="K21">
-        <v>0.3296514623254155</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.3799194640425443</v>
       </c>
-      <c r="K22">
-        <v>2.492037905166902</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>0.7173324164916581</v>
       </c>
-      <c r="J23">
-        <v>3.589289785701104</v>
-      </c>
-      <c r="K23">
-        <v>18.01498668241067</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-2.367037991028298</v>
       </c>
-      <c r="I24">
-        <v>0.5049193781811481</v>
-      </c>
-      <c r="J24">
-        <v>14.93061627489071</v>
-      </c>
-      <c r="K24">
-        <v>-10.15409240999935</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>-2.406510317809929</v>
       </c>
-      <c r="K26">
-        <v>-2.512938874122935</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>-2.971914596530254</v>
       </c>
-      <c r="J27">
-        <v>-3.07834315284326</v>
-      </c>
-      <c r="K27">
-        <v>-1.329627155229175</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>-3.006510317809929</v>
       </c>
-      <c r="I28">
-        <v>-3.112938874122935</v>
-      </c>
-      <c r="J28">
-        <v>-1.36422287650885</v>
-      </c>
-      <c r="K28">
-        <v>1.261604321912398</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>-5.013305896690596</v>
       </c>
-      <c r="K30">
-        <v>-0.8595623955320235</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>-3.810017602767218</v>
       </c>
-      <c r="J31">
-        <v>0.3437258983913554</v>
-      </c>
-      <c r="K31">
-        <v>-0.3221206215403352</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-6.681974971976663</v>
       </c>
-      <c r="I32">
-        <v>-2.528231470818091</v>
-      </c>
-      <c r="J32">
-        <v>-3.194077990749781</v>
-      </c>
-      <c r="K32">
-        <v>-3.951141586996604</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>10.39709780709497</v>
       </c>
-      <c r="K34">
-        <v>9.963901476152344</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>5.044596336724396</v>
       </c>
-      <c r="J35">
-        <v>4.611400005781775</v>
-      </c>
-      <c r="K35">
-        <v>3.714584630134098</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>5.151024893037402</v>
       </c>
-      <c r="I36">
-        <v>4.71782856209478</v>
-      </c>
-      <c r="J36">
-        <v>3.821013186447104</v>
-      </c>
-      <c r="K36">
-        <v>5.08770374598177</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>1.120181593996122</v>
       </c>
-      <c r="K38">
-        <v>-1.176625030627534</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>6.763760887885184</v>
       </c>
-      <c r="J39">
-        <v>4.466954263261528</v>
-      </c>
-      <c r="K39">
-        <v>5.055752123058397</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>2.610017386726611</v>
       </c>
-      <c r="I40">
-        <v>0.3132107621029547</v>
-      </c>
-      <c r="J40">
-        <v>0.9020086218998244</v>
-      </c>
-      <c r="K40">
-        <v>0.7731291372494979</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>1.803291077958178</v>
       </c>
-      <c r="K42">
-        <v>1.276334624211031</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-1.885936527952893</v>
       </c>
-      <c r="J43">
-        <v>-2.41289298170004</v>
-      </c>
-      <c r="K43">
-        <v>-2.98034896160172</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-1.452740197010272</v>
-      </c>
-      <c r="I44">
-        <v>-1.979696650757419</v>
-      </c>
-      <c r="J44">
-        <v>-2.547152630659099</v>
       </c>
     </row>
     <row r="45" spans="1:11">
